--- a/Data/EC/NIT-8000877952.xlsx
+++ b/Data/EC/NIT-8000877952.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9258D8A-80EB-42AC-82D6-5AC7EB8EF616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78482732-4541-4CAC-92D2-75059F836383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9E7297A5-B37A-4297-8C08-5FD15C7A2815}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{19CC882F-22EB-4960-88F3-2308396668FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -72,6 +72,33 @@
   </si>
   <si>
     <t>1808</t>
+  </si>
+  <si>
+    <t>92694438</t>
+  </si>
+  <si>
+    <t>GUILLERMO LEON GARRIDO MOGOLLON</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>1045731691</t>
+  </si>
+  <si>
+    <t>GERALDINE LISETH PALACIO MORELL</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>1129566132</t>
+  </si>
+  <si>
+    <t>LUIS MIGUEL MEDINA SOLANO</t>
+  </si>
+  <si>
+    <t>2507</t>
   </si>
   <si>
     <t>1140882935</t>
@@ -118,8 +145,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -383,29 +410,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -417,29 +426,38 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -450,7 +468,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -491,7 +518,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98D5F255-2D74-5174-4BFE-E5F3904FE9A9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45CD32C6-B4DB-2F10-382A-CED924C813B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -842,254 +869,346 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D0EACC-49DE-4EE0-AAB5-14AC9620A681}">
-  <dimension ref="B2:J23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{365FF759-6AA8-4894-B75B-4F2EDF13DE92}">
+  <dimension ref="B2:J27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:J5"/>
+      <selection activeCell="E7" sqref="E7:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="6" t="s">
+      <c r="B7" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
     </row>
     <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="6">
+      <c r="C9" s="23"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="29">
         <v>8000877952</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
     </row>
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="7">
-        <v>957844</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
+      <c r="B11" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="30">
+        <v>2507644</v>
+      </c>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
     </row>
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="25">
+        <v>5</v>
+      </c>
+      <c r="D13" s="25"/>
+      <c r="E13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="25">
+        <v>4</v>
+      </c>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B16" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="12">
+        <v>955265</v>
+      </c>
+      <c r="G16" s="12">
+        <v>24039367</v>
+      </c>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="14"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B17" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="12">
+        <v>649186</v>
+      </c>
+      <c r="G17" s="12">
+        <v>16229625</v>
+      </c>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="14"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B18" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="5">
-        <v>2</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="8" t="s">
+      <c r="F18" s="12">
+        <v>288802</v>
+      </c>
+      <c r="G18" s="12">
+        <v>4621941</v>
+      </c>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="14"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B19" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="12">
+        <v>288802</v>
+      </c>
+      <c r="G19" s="12">
+        <v>4621941</v>
+      </c>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="14"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B20" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="5">
-        <v>1</v>
-      </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B15" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H15" s="13" t="s">
+      <c r="D20" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="J15" s="14" t="s">
+      <c r="F20" s="12">
+        <v>323010</v>
+      </c>
+      <c r="G20" s="12">
+        <v>8075243</v>
+      </c>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="14"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B21" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="16" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B16" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="16" t="s">
+      <c r="D21" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
-        <v>955265</v>
-      </c>
-      <c r="G16" s="18">
-        <v>24039367</v>
-      </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B17" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="24">
+      <c r="F21" s="18">
         <v>2579</v>
       </c>
-      <c r="G17" s="24">
+      <c r="G21" s="18">
         <v>1934267</v>
       </c>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="26"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B22" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="32"/>
-      <c r="H22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B23" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="32"/>
-      <c r="H23" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="20"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B26" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="H26" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B27" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="21"/>
+      <c r="H27" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B2:C5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B9:D9"/>
     <mergeCell ref="D2:J5"/>
     <mergeCell ref="E7:J7"/>
     <mergeCell ref="E9:J9"/>
     <mergeCell ref="E11:J11"/>
     <mergeCell ref="F13:J13"/>
-    <mergeCell ref="B2:C5"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="C13:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
